--- a/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12.917200083894926</v>
+        <v>12.917200115703452</v>
       </c>
       <c r="C2">
-        <v>1.4025202855301586</v>
+        <v>1.4025203014936949</v>
       </c>
       <c r="D2">
-        <v>21.646285410577264</v>
+        <v>21.646285443385267</v>
       </c>
       <c r="E2">
-        <v>-5.8980934502443461E-2</v>
+        <v>-5.8980901638761907E-2</v>
       </c>
       <c r="F2">
-        <v>39.887394545846035</v>
+        <v>39.887394565307972</v>
       </c>
       <c r="G2">
-        <v>10.040128348941352</v>
+        <v>10.040128370597444</v>
       </c>
       <c r="H2">
-        <v>-5.6735414089638425</v>
+        <v>-5.6735413890060045</v>
       </c>
       <c r="I2">
-        <v>8.6137256363662686</v>
+        <v>8.6137256610875284</v>
       </c>
       <c r="J2">
-        <v>5.1418736578539779</v>
+        <v>5.1418736753486201</v>
       </c>
       <c r="K2">
-        <v>-12.519485074713259</v>
+        <v>-12.519485056952107</v>
       </c>
       <c r="L2">
-        <v>4.7113172507497438</v>
+        <v>4.7113172749770342</v>
       </c>
       <c r="M2">
-        <v>4.8751871316547977</v>
+        <v>4.8751871769172794</v>
       </c>
       <c r="N2">
-        <v>-0.18095031026317088</v>
+        <v>-0.18095027012196852</v>
       </c>
       <c r="O2">
-        <v>8.2127157237599988</v>
+        <v>8.2127157499167538</v>
       </c>
       <c r="P2">
-        <v>11.016520813058236</v>
+        <v>11.016520857326128</v>
       </c>
       <c r="Q2">
-        <v>1.5379856068522599</v>
+        <v>1.537985640428019</v>
       </c>
       <c r="R2">
-        <v>2.010294076978596</v>
+        <v>2.0102941070087184</v>
       </c>
       <c r="S2">
-        <v>12.763313664289768</v>
+        <v>12.76331364976437</v>
       </c>
       <c r="T2">
-        <v>-7.9109974115864645</v>
+        <v>-7.910997360426876</v>
       </c>
       <c r="U2">
-        <v>-5.4915151843030969</v>
+        <v>-5.4915151639988551</v>
       </c>
       <c r="V2">
-        <v>-6.0410106229251994</v>
+        <v>-6.0410106032926478</v>
       </c>
       <c r="W2">
-        <v>11.985427342670448</v>
+        <v>11.98542736616966</v>
       </c>
       <c r="X2">
-        <v>-5.396039097148531</v>
+        <v>-5.3960390554659057</v>
       </c>
       <c r="Y2">
-        <v>-8.3648275057164199</v>
+        <v>-8.3648274751646738</v>
       </c>
       <c r="Z2">
-        <v>0.40223961968371214</v>
+        <v>0.4022396423582677</v>
       </c>
       <c r="AA2">
-        <v>1.0410259502783674</v>
+        <v>1.0410259813281186</v>
       </c>
       <c r="AB2">
-        <v>1.0079364265565687</v>
+        <v>1.0079364608329797</v>
       </c>
       <c r="AC2">
-        <v>5.3088764611301542</v>
+        <v>5.3088764807146163</v>
       </c>
       <c r="AD2">
-        <v>6.6359725595447117E-2</v>
+        <v>6.6359758408054859E-2</v>
       </c>
       <c r="AE2">
-        <v>-10.816057793911739</v>
+        <v>-10.816057779780891</v>
       </c>
       <c r="AF2">
-        <v>-0.51140540723818617</v>
+        <v>-0.51140537611576065</v>
       </c>
       <c r="AG2">
-        <v>-0.36819535770462153</v>
+        <v>-0.36819533264645088</v>
       </c>
       <c r="AH2">
-        <v>2.5514447943611742</v>
+        <v>2.5514448374354117</v>
       </c>
       <c r="AI2">
-        <v>29.884012117805327</v>
+        <v>29.884012149998625</v>
       </c>
       <c r="AJ2">
-        <v>1.9825572738638471</v>
+        <v>1.9825572956740132</v>
       </c>
       <c r="AK2">
-        <v>2.4258402277825155</v>
+        <v>2.4258402511945008</v>
       </c>
       <c r="AL2">
-        <v>-9.3517357010758815</v>
+        <v>-9.3517356725474485</v>
       </c>
       <c r="AM2">
-        <v>0.2900990337765279</v>
+        <v>0.2900990679460449</v>
       </c>
       <c r="AN2">
-        <v>1.1832392500952267</v>
+        <v>1.1832392781919339</v>
       </c>
       <c r="AO2">
-        <v>-4.8958374746282232</v>
+        <v>-4.8958374306619987</v>
       </c>
       <c r="AP2">
-        <v>1.3740108269040547</v>
+        <v>1.3740108523793424</v>
       </c>
       <c r="AQ2">
-        <v>0.22662783599781733</v>
+        <v>0.22662787183105593</v>
       </c>
       <c r="AR2">
-        <v>3.5003185002725274</v>
+        <v>3.5003185150313527</v>
       </c>
       <c r="AS2">
-        <v>-6.21264196179132</v>
+        <v>-6.2126419376169792</v>
       </c>
       <c r="AT2">
-        <v>-4.6798512133321708</v>
+        <v>-4.6798511800095355</v>
       </c>
       <c r="AU2">
-        <v>-2.7360925190488956</v>
+        <v>-2.7360924926957466</v>
       </c>
       <c r="AV2">
-        <v>1.945834265532028</v>
+        <v>1.9458342946236939</v>
       </c>
       <c r="AW2">
-        <v>-3.5926859671650391</v>
+        <v>-3.5926859385599244</v>
       </c>
       <c r="AX2">
-        <v>-5.6317096102505673</v>
+        <v>-5.6317095811618856</v>
       </c>
       <c r="AY2">
-        <v>-3.386948088682459</v>
+        <v>-3.3869480658855764</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.156650294407768</v>
+        <v>10.156650319374251</v>
       </c>
       <c r="C3">
-        <v>0.95940165712744374</v>
+        <v>0.9594016797653353</v>
       </c>
       <c r="D3">
-        <v>-6.5842431933331795</v>
+        <v>-6.5842431640285497</v>
       </c>
       <c r="E3">
-        <v>-10.499727545179127</v>
+        <v>-10.499727460127957</v>
       </c>
       <c r="F3">
-        <v>16.255505832020134</v>
+        <v>16.255505849887186</v>
       </c>
       <c r="G3">
-        <v>-1.6441218596849865</v>
+        <v>-1.6441218470198748</v>
       </c>
       <c r="H3">
-        <v>3.5050838996190521</v>
+        <v>3.5050839403970713</v>
       </c>
       <c r="I3">
-        <v>2.0260751637614192</v>
+        <v>2.0260751868025864</v>
       </c>
       <c r="J3">
-        <v>0.80548766279727602</v>
+        <v>0.80548769317996971</v>
       </c>
       <c r="K3">
-        <v>17.564115743553941</v>
+        <v>17.564115762383295</v>
       </c>
       <c r="L3">
-        <v>-2.7885658213273246</v>
+        <v>-2.788565800273517</v>
       </c>
       <c r="M3">
-        <v>3.7266883759780569</v>
+        <v>3.7264308818610345</v>
       </c>
       <c r="N3">
-        <v>1.0535169916514633</v>
+        <v>1.0535170230153028</v>
       </c>
       <c r="O3">
-        <v>6.905307851757243</v>
+        <v>6.9053078809481292</v>
       </c>
       <c r="P3">
-        <v>-32.617814591343006</v>
+        <v>-32.617814559687645</v>
       </c>
       <c r="Q3">
-        <v>1.0290328011926988</v>
+        <v>1.0290328382044436</v>
       </c>
       <c r="R3">
-        <v>12.60618970722058</v>
+        <v>12.606189761713807</v>
       </c>
       <c r="S3">
-        <v>13.366281788141976</v>
+        <v>13.366281811374705</v>
       </c>
       <c r="T3">
-        <v>12.693334765906371</v>
+        <v>12.693334787069148</v>
       </c>
       <c r="U3">
-        <v>-3.3295509643010064</v>
+        <v>-3.3295509424246745</v>
       </c>
       <c r="V3">
-        <v>-9.0347984154853975</v>
+        <v>-9.0347983928439248</v>
       </c>
       <c r="W3">
-        <v>0.43246904595682167</v>
+        <v>0.43246908595898503</v>
       </c>
       <c r="X3">
-        <v>13.905294503933789</v>
+        <v>13.90529453159391</v>
       </c>
       <c r="Y3">
-        <v>8.7166287856958888</v>
+        <v>8.7166288083370205</v>
       </c>
       <c r="Z3">
-        <v>-4.9861813697338278</v>
+        <v>-4.986181339760634</v>
       </c>
       <c r="AA3">
-        <v>-1.9700759328265178</v>
+        <v>-1.9700758947801944</v>
       </c>
       <c r="AB3">
-        <v>1.3509718125578161</v>
+        <v>1.3509718275806506</v>
       </c>
       <c r="AC3">
-        <v>-1.0774719554392505</v>
+        <v>-1.0774719374340691</v>
       </c>
       <c r="AD3">
-        <v>-4.6327469330713598</v>
+        <v>-4.6327469100087626</v>
       </c>
       <c r="AE3">
-        <v>-7.4219007289297849</v>
+        <v>-7.4219007063512095</v>
       </c>
       <c r="AF3">
-        <v>-0.33945264101402017</v>
+        <v>-0.33945261665766679</v>
       </c>
       <c r="AG3">
-        <v>0.44701361419487284</v>
+        <v>0.44701363139685668</v>
       </c>
       <c r="AH3">
-        <v>-2.3027577344456915</v>
+        <v>-2.3027577017354872</v>
       </c>
       <c r="AI3">
-        <v>1.5159559208234441</v>
+        <v>1.5159559296334066</v>
       </c>
       <c r="AJ3">
-        <v>-6.1106150592974302</v>
+        <v>-6.1106150431791662</v>
       </c>
       <c r="AK3">
-        <v>2.5347383361814764</v>
+        <v>2.534738358628033</v>
       </c>
       <c r="AL3">
-        <v>-7.8527223987088917</v>
+        <v>-7.8527223595083626</v>
       </c>
       <c r="AM3">
-        <v>0.71538009545534464</v>
+        <v>0.71538012402467643</v>
       </c>
       <c r="AN3">
-        <v>9.0243067444897065</v>
+        <v>9.0243067736811895</v>
       </c>
       <c r="AO3">
-        <v>19.931254879024664</v>
+        <v>19.931254906430013</v>
       </c>
       <c r="AP3">
-        <v>-9.4815356194685592</v>
+        <v>-9.4815355933546357</v>
       </c>
       <c r="AQ3">
-        <v>-4.3584087537502398</v>
+        <v>-4.3584087099669944</v>
       </c>
       <c r="AR3">
-        <v>0.16651222670708421</v>
+        <v>0.16651224769108808</v>
       </c>
       <c r="AS3">
-        <v>8.1968809525793347</v>
+        <v>8.1968809837473771</v>
       </c>
       <c r="AT3">
-        <v>-0.81560324645607807</v>
+        <v>-0.81560321561684646</v>
       </c>
       <c r="AU3">
-        <v>-6.7639617491396393</v>
+        <v>-6.7639617312883331</v>
       </c>
       <c r="AV3">
-        <v>-5.0915766062457806</v>
+        <v>-5.0915765792394723</v>
       </c>
       <c r="AW3">
-        <v>-3.748411952184739</v>
+        <v>-3.7484119292890341</v>
       </c>
       <c r="AX3">
-        <v>-32.992228364849041</v>
+        <v>-32.992228339843251</v>
       </c>
       <c r="AY3">
-        <v>-18.383045661086243</v>
+        <v>-18.383045629727462</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>12.917200115703452</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.4025203014936949</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>21.646285443385267</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-5.8980901638761907E-2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>39.887394565307972</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.040128370597444</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.6735413890060045</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.6137256610875284</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.1418736753486201</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-12.519485056952107</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.7113172749770342</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.8751871769172794</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.18095027012196852</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.2127157499167538</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.016520857326128</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.537985640428019</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.0102941070087184</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>12.76331364976437</v>
+        <v>12.763346979764378</v>
       </c>
       <c r="T2">
-        <v>-7.910997360426876</v>
+        <v>-7.910964030426868</v>
       </c>
       <c r="U2">
-        <v>-5.4915151639988551</v>
+        <v>-5.4914818339988472</v>
       </c>
       <c r="V2">
-        <v>-6.0410106032926478</v>
+        <v>-6.0409772732926683</v>
       </c>
       <c r="W2">
-        <v>11.98542736616966</v>
+        <v>11.985460696169639</v>
       </c>
       <c r="X2">
-        <v>-5.3960390554659057</v>
+        <v>-5.3960723854659136</v>
       </c>
       <c r="Y2">
-        <v>-8.3648274751646738</v>
+        <v>-8.3648608051646818</v>
       </c>
       <c r="Z2">
-        <v>0.4022396423582677</v>
+        <v>0.40220631235825977</v>
       </c>
       <c r="AA2">
-        <v>1.0410259813281186</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.0079364608329797</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.3088764807146163</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.6359758408054859E-2</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-10.816057779780891</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-0.51140537611576065</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.36819533264645088</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.5514448374354117</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>29.884012149998625</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.9825572956740132</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.4258402511945008</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-9.3517356725474485</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.2900990679460449</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.1832392781919339</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-4.8958374306619987</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.3740108523793424</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.22662787183105593</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.5003185150313527</v>
+        <v>3.5003518450313607</v>
       </c>
       <c r="AS2">
-        <v>-6.2126419376169792</v>
+        <v>-6.2126086076169997</v>
       </c>
       <c r="AT2">
         <v>-4.6798511800095355</v>
       </c>
       <c r="AU2">
-        <v>-2.7360924926957466</v>
+        <v>-2.7360591626957387</v>
       </c>
       <c r="AV2">
         <v>1.9458342946236939</v>
       </c>
       <c r="AW2">
-        <v>-3.5926859385599244</v>
+        <v>-3.5927192685599323</v>
       </c>
       <c r="AX2">
-        <v>-5.6317095811618856</v>
+        <v>-5.6317429111618651</v>
       </c>
       <c r="AY2">
         <v>-3.3869480658855764</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>10.156650319374251</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9594016797653353</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.5842431640285497</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-10.499727460127957</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.255505849887186</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-1.6441218470198748</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.5050839403970713</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.0260751868025864</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.80548769317996971</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.564115762383295</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-2.788565800273517</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.7264308818610345</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.0535170230153028</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.9053078809481292</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-32.617814559687645</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.0290328382044436</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>12.606189761713807</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>13.366281811374705</v>
       </c>
       <c r="T3">
-        <v>12.693334787069148</v>
+        <v>12.693368117069156</v>
       </c>
       <c r="U3">
-        <v>-3.3295509424246745</v>
+        <v>-3.3295176124246666</v>
       </c>
       <c r="V3">
-        <v>-9.0347983928439248</v>
+        <v>-9.0347650628439453</v>
       </c>
       <c r="W3">
-        <v>0.43246908595898503</v>
+        <v>0.43250241595899297</v>
       </c>
       <c r="X3">
-        <v>13.90529453159391</v>
+        <v>13.905327861593918</v>
       </c>
       <c r="Y3">
-        <v>8.7166288083370205</v>
+        <v>8.716595478337041</v>
       </c>
       <c r="Z3">
-        <v>-4.986181339760634</v>
+        <v>-4.986214669760642</v>
       </c>
       <c r="AA3">
-        <v>-1.9700758947801944</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.3509718275806506</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1.0774719374340691</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-4.6327469100087626</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-7.4219007063512095</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-0.33945261665766679</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.44701363139685668</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-2.3027577017354872</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.5159559296334066</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-6.1106150431791662</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.534738358628033</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-7.8527223595083626</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.71538012402467643</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.0243067736811895</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>19.931254906430013</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-9.4815355933546357</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-4.3584087099669944</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.16651224769108808</v>
+        <v>0.16654557769106759</v>
       </c>
       <c r="AS3">
         <v>8.1968809837473771</v>
       </c>
       <c r="AT3">
-        <v>-0.81560321561684646</v>
+        <v>-0.81556988561683852</v>
       </c>
       <c r="AU3">
-        <v>-6.7639617312883331</v>
+        <v>-6.7639284012883252</v>
       </c>
       <c r="AV3">
-        <v>-5.0915765792394723</v>
+        <v>-5.0916099092394802</v>
       </c>
       <c r="AW3">
-        <v>-3.7484119292890341</v>
+        <v>-3.7483785992890262</v>
       </c>
       <c r="AX3">
-        <v>-32.992228339843251</v>
+        <v>-32.992261669843231</v>
       </c>
       <c r="AY3">
         <v>-18.383045629727462</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12.917233413894934</v>
+        <v>8.2126824199167459</v>
       </c>
       <c r="C2">
-        <v>-0.13417971446983756</v>
+        <v>2.0103274370086979</v>
       </c>
       <c r="D2">
-        <v>21.646285410577264</v>
+        <v>1.1832059481919259</v>
       </c>
       <c r="E2">
-        <v>-7.3723476045024654</v>
+        <v>0.22662787183105593</v>
       </c>
       <c r="F2">
         <v>39.887427875846043</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.156650294407768</v>
+        <v>6.9053078809481292</v>
       </c>
       <c r="C3">
-        <v>-5.6805650128725631</v>
+        <v>12.606223091713815</v>
       </c>
       <c r="D3">
-        <v>-6.5842098633332</v>
+        <v>9.02427344368121</v>
       </c>
       <c r="E3">
-        <v>-10.499694215179119</v>
+        <v>-4.2811632553267032</v>
       </c>
       <c r="F3">
         <v>16.255472502020126</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12.917233413894934</v>
+        <v>35.959083059878026</v>
       </c>
       <c r="C2">
-        <v>-0.13417971446983756</v>
+        <v>8.2126824199167459</v>
       </c>
       <c r="D2">
-        <v>21.646285410577264</v>
+        <v>9.5934323979460601</v>
       </c>
       <c r="E2">
-        <v>-7.3723476045024654</v>
+        <v>1.1832059481919259</v>
       </c>
       <c r="F2">
         <v>39.887427875846043</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.156650294407768</v>
+        <v>51.553550353015311</v>
       </c>
       <c r="C3">
-        <v>-5.6805650128725631</v>
+        <v>6.9053078809481292</v>
       </c>
       <c r="D3">
-        <v>-6.5842098633332</v>
+        <v>-12.791286545975339</v>
       </c>
       <c r="E3">
-        <v>-10.499694215179119</v>
+        <v>9.02427344368121</v>
       </c>
       <c r="F3">
         <v>16.255472502020126</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>12.917233445703459</v>
+      </c>
+      <c r="C2">
+        <v>-0.13417969850630129</v>
+      </c>
+      <c r="D2">
+        <v>21.646285443385267</v>
+      </c>
+      <c r="E2">
+        <v>-7.3723475716387838</v>
+      </c>
+      <c r="F2">
+        <v>39.887427895307979</v>
+      </c>
+      <c r="G2">
+        <v>10.040161700597423</v>
+      </c>
+      <c r="H2">
+        <v>-5.673574719005984</v>
+      </c>
+      <c r="I2">
+        <v>8.6137589910875363</v>
+      </c>
+      <c r="J2">
+        <v>5.1418403453486405</v>
+      </c>
+      <c r="K2">
+        <v>-12.519518386952114</v>
+      </c>
+      <c r="L2">
+        <v>4.7113506049770422</v>
+      </c>
+      <c r="M2">
+        <v>4.8751538469172999</v>
+      </c>
+      <c r="N2">
         <v>35.959083059878026</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>8.2126824199167459</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.016520857326128</v>
+      </c>
+      <c r="Q2">
+        <v>-30.118647689571958</v>
+      </c>
+      <c r="R2">
+        <v>2.0103274370086979</v>
+      </c>
+      <c r="S2">
+        <v>12.763346979764378</v>
+      </c>
+      <c r="T2">
+        <v>-7.910964030426868</v>
+      </c>
+      <c r="U2">
+        <v>-5.4914818339988472</v>
+      </c>
+      <c r="V2">
+        <v>-6.0409772732926683</v>
+      </c>
+      <c r="W2">
+        <v>11.985460696169639</v>
+      </c>
+      <c r="X2">
+        <v>-5.3960723854659136</v>
+      </c>
+      <c r="Y2">
+        <v>-8.3648608051646818</v>
+      </c>
+      <c r="Z2">
+        <v>0.40220631235825977</v>
+      </c>
+      <c r="AA2">
+        <v>1.0409926513281107</v>
+      </c>
+      <c r="AB2">
+        <v>30.091269790832996</v>
+      </c>
+      <c r="AC2">
+        <v>5.3088431507146367</v>
+      </c>
+      <c r="AD2">
+        <v>7.613026428408034</v>
+      </c>
+      <c r="AE2">
+        <v>-10.816057779780891</v>
+      </c>
+      <c r="AF2">
+        <v>-0.51137204611575271</v>
+      </c>
+      <c r="AG2">
+        <v>-0.36819533264645088</v>
+      </c>
+      <c r="AH2">
+        <v>2.5514781674354197</v>
+      </c>
+      <c r="AI2">
+        <v>29.884045479998605</v>
+      </c>
+      <c r="AJ2">
+        <v>1.9825239656740337</v>
+      </c>
+      <c r="AK2">
+        <v>2.4258069211945212</v>
+      </c>
+      <c r="AL2">
+        <v>-9.3517356725474485</v>
+      </c>
+      <c r="AM2">
         <v>9.5934323979460601</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.1832059481919259</v>
       </c>
-      <c r="F2">
-        <v>39.887427875846043</v>
-      </c>
-      <c r="G2">
-        <v>10.040161678941331</v>
-      </c>
-      <c r="H2">
-        <v>-5.673574738963822</v>
-      </c>
-      <c r="I2">
-        <v>8.6137589663662766</v>
-      </c>
-      <c r="J2">
-        <v>5.1418403278539984</v>
-      </c>
-      <c r="K2">
-        <v>-12.519518404713267</v>
-      </c>
-      <c r="L2">
-        <v>4.7113505807497518</v>
-      </c>
-      <c r="M2">
-        <v>4.8751538016548182</v>
-      </c>
-      <c r="N2">
-        <v>35.959083019736823</v>
-      </c>
-      <c r="O2">
-        <v>8.2126823937599909</v>
-      </c>
-      <c r="P2">
-        <v>11.016520813058236</v>
-      </c>
-      <c r="Q2">
-        <v>-30.118647723147717</v>
-      </c>
-      <c r="R2">
-        <v>2.0103274069785755</v>
-      </c>
-      <c r="S2">
-        <v>12.763346994289776</v>
-      </c>
-      <c r="T2">
-        <v>-7.9109640815864566</v>
-      </c>
-      <c r="U2">
-        <v>-5.491481854303089</v>
-      </c>
-      <c r="V2">
-        <v>-6.0409772929252199</v>
-      </c>
-      <c r="W2">
-        <v>11.985460672670428</v>
-      </c>
-      <c r="X2">
-        <v>-5.396072427148539</v>
-      </c>
-      <c r="Y2">
-        <v>-8.3648608357164278</v>
-      </c>
-      <c r="Z2">
-        <v>0.4022062896837042</v>
-      </c>
-      <c r="AA2">
-        <v>1.0409926202783595</v>
-      </c>
-      <c r="AB2">
-        <v>30.091269756556585</v>
-      </c>
-      <c r="AC2">
-        <v>5.3088431311301747</v>
-      </c>
-      <c r="AD2">
-        <v>7.6130263955954263</v>
-      </c>
-      <c r="AE2">
-        <v>-10.816057793911739</v>
-      </c>
-      <c r="AF2">
-        <v>-0.51137207723817824</v>
-      </c>
-      <c r="AG2">
-        <v>-0.36819535770462153</v>
-      </c>
-      <c r="AH2">
-        <v>2.5514781243611822</v>
-      </c>
-      <c r="AI2">
-        <v>29.884045447805306</v>
-      </c>
-      <c r="AJ2">
-        <v>1.9825239438638675</v>
-      </c>
-      <c r="AK2">
-        <v>2.425806897782536</v>
-      </c>
-      <c r="AL2">
-        <v>-9.3517357010758815</v>
-      </c>
-      <c r="AM2">
-        <v>9.5934323637765431</v>
-      </c>
-      <c r="AN2">
-        <v>1.1832059200952187</v>
-      </c>
       <c r="AO2">
-        <v>-4.8958374746282232</v>
+        <v>-4.8958374306619987</v>
       </c>
       <c r="AP2">
-        <v>0.97869287898720358</v>
+        <v>0.97869291104868239</v>
       </c>
       <c r="AQ2">
-        <v>0.22662783599781733</v>
+        <v>0.22662787183105593</v>
       </c>
       <c r="AR2">
-        <v>3.5003518302725354</v>
+        <v>3.5003518450313607</v>
       </c>
       <c r="AS2">
-        <v>-6.2126086317913405</v>
+        <v>-6.2126086076169997</v>
       </c>
       <c r="AT2">
-        <v>-4.6798512133321708</v>
+        <v>-4.6798511800095355</v>
       </c>
       <c r="AU2">
-        <v>-2.7360591890488877</v>
+        <v>-2.7360591626957387</v>
       </c>
       <c r="AV2">
-        <v>1.945834265532028</v>
+        <v>1.9458342946236939</v>
       </c>
       <c r="AW2">
-        <v>-3.592719297165047</v>
+        <v>-3.5927192685599323</v>
       </c>
       <c r="AX2">
-        <v>-5.6317429402505468</v>
+        <v>-5.6317429111618651</v>
       </c>
       <c r="AY2">
-        <v>-3.386948088682459</v>
+        <v>-3.3869480658855764</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>10.156650319374251</v>
+      </c>
+      <c r="C3">
+        <v>-5.6805649902346715</v>
+      </c>
+      <c r="D3">
+        <v>-6.5842098340285702</v>
+      </c>
+      <c r="E3">
+        <v>-10.499694130127949</v>
+      </c>
+      <c r="F3">
+        <v>16.255472519887178</v>
+      </c>
+      <c r="G3">
+        <v>-1.6440885170198669</v>
+      </c>
+      <c r="H3">
+        <v>3.5050506103970918</v>
+      </c>
+      <c r="I3">
+        <v>2.0260418568025784</v>
+      </c>
+      <c r="J3">
+        <v>-1.4378123068200352</v>
+      </c>
+      <c r="K3">
+        <v>17.564115762383295</v>
+      </c>
+      <c r="L3">
+        <v>-2.7885991302735249</v>
+      </c>
+      <c r="M3">
+        <v>3.7264308818610345</v>
+      </c>
+      <c r="N3">
         <v>51.553550353015311</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.9053078809481292</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-32.617781229687637</v>
+      </c>
+      <c r="Q3">
+        <v>1.0289995082044641</v>
+      </c>
+      <c r="R3">
+        <v>12.606223091713815</v>
+      </c>
+      <c r="S3">
+        <v>13.366281811374705</v>
+      </c>
+      <c r="T3">
+        <v>12.693368117069156</v>
+      </c>
+      <c r="U3">
+        <v>-3.3295176124246666</v>
+      </c>
+      <c r="V3">
+        <v>-9.0347650628439453</v>
+      </c>
+      <c r="W3">
+        <v>0.42770716962252209</v>
+      </c>
+      <c r="X3">
+        <v>13.905327861593918</v>
+      </c>
+      <c r="Y3">
+        <v>8.716595478337041</v>
+      </c>
+      <c r="Z3">
+        <v>-4.986214669760642</v>
+      </c>
+      <c r="AA3">
+        <v>-1.9700425647801865</v>
+      </c>
+      <c r="AB3">
+        <v>3.9142718275806487</v>
+      </c>
+      <c r="AC3">
+        <v>-1.077505267434077</v>
+      </c>
+      <c r="AD3">
+        <v>-4.6327469100087626</v>
+      </c>
+      <c r="AE3">
+        <v>-7.42186737635123</v>
+      </c>
+      <c r="AF3">
+        <v>-0.33941928665765886</v>
+      </c>
+      <c r="AG3">
+        <v>0.44701363139685668</v>
+      </c>
+      <c r="AH3">
+        <v>-2.1789071912798761</v>
+      </c>
+      <c r="AI3">
+        <v>-5.7410740366577784E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>-6.1105817131791582</v>
+      </c>
+      <c r="AK3">
+        <v>2.5347050286280535</v>
+      </c>
+      <c r="AL3">
+        <v>-7.8527223595083626</v>
+      </c>
+      <c r="AM3">
         <v>-12.791286545975339</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>9.02427344368121</v>
       </c>
-      <c r="F3">
-        <v>16.255472502020126</v>
-      </c>
-      <c r="G3">
-        <v>-1.6440885296849785</v>
-      </c>
-      <c r="H3">
-        <v>3.5050505696190726</v>
-      </c>
-      <c r="I3">
-        <v>2.0260418337614112</v>
-      </c>
-      <c r="J3">
-        <v>-1.4378123372027289</v>
-      </c>
-      <c r="K3">
-        <v>17.564115743553941</v>
-      </c>
-      <c r="L3">
-        <v>-2.7885991513273325</v>
-      </c>
-      <c r="M3">
-        <v>3.7266883759780569</v>
-      </c>
-      <c r="N3">
-        <v>51.553550321651471</v>
-      </c>
-      <c r="O3">
-        <v>6.905307851757243</v>
-      </c>
-      <c r="P3">
-        <v>-32.617781261342998</v>
-      </c>
-      <c r="Q3">
-        <v>1.0289994711927193</v>
-      </c>
-      <c r="R3">
-        <v>12.606223037220587</v>
-      </c>
-      <c r="S3">
-        <v>13.366281788141976</v>
-      </c>
-      <c r="T3">
-        <v>12.693368095906379</v>
-      </c>
-      <c r="U3">
-        <v>-3.3295176343009985</v>
-      </c>
-      <c r="V3">
-        <v>-9.034765085485418</v>
-      </c>
-      <c r="W3">
-        <v>0.42770713633785817</v>
-      </c>
-      <c r="X3">
-        <v>13.905327833933796</v>
-      </c>
-      <c r="Y3">
-        <v>8.7165954556959093</v>
-      </c>
-      <c r="Z3">
-        <v>-4.9862146997338357</v>
-      </c>
-      <c r="AA3">
-        <v>-1.9700426028265099</v>
-      </c>
-      <c r="AB3">
-        <v>3.9142718125578142</v>
-      </c>
-      <c r="AC3">
-        <v>-1.0775052854392584</v>
-      </c>
-      <c r="AD3">
-        <v>-4.6327469330713598</v>
-      </c>
-      <c r="AE3">
-        <v>-7.4218673989298054</v>
-      </c>
-      <c r="AF3">
-        <v>-0.33941931101401224</v>
-      </c>
-      <c r="AG3">
-        <v>0.44701361419487284</v>
-      </c>
-      <c r="AH3">
-        <v>-2.1789072211504674</v>
-      </c>
-      <c r="AI3">
-        <v>-5.7410749176540321E-2</v>
-      </c>
-      <c r="AJ3">
-        <v>-6.1105817292974223</v>
-      </c>
-      <c r="AK3">
-        <v>2.5347050061814969</v>
-      </c>
-      <c r="AL3">
-        <v>-7.8527223987088917</v>
-      </c>
-      <c r="AM3">
-        <v>-12.791286574544671</v>
-      </c>
-      <c r="AN3">
-        <v>9.024273414489727</v>
-      </c>
       <c r="AO3">
-        <v>19.931254879024664</v>
+        <v>19.931254906430013</v>
       </c>
       <c r="AP3">
-        <v>-9.4815689494685671</v>
+        <v>-9.4815689233546436</v>
       </c>
       <c r="AQ3">
-        <v>-4.281163299507881</v>
+        <v>-4.2811632553267032</v>
       </c>
       <c r="AR3">
-        <v>0.16654555670706372</v>
+        <v>0.16654557769106759</v>
       </c>
       <c r="AS3">
-        <v>8.1968809525793347</v>
+        <v>8.1968809837473771</v>
       </c>
       <c r="AT3">
-        <v>-0.81556991645607013</v>
+        <v>-0.81556988561683852</v>
       </c>
       <c r="AU3">
-        <v>-6.7639284191396314</v>
+        <v>-6.7639284012883252</v>
       </c>
       <c r="AV3">
-        <v>-5.0916099362457885</v>
+        <v>-5.0916099092394802</v>
       </c>
       <c r="AW3">
-        <v>-3.7483786221847311</v>
+        <v>-3.7483785992890262</v>
       </c>
       <c r="AX3">
-        <v>-32.99226169484902</v>
+        <v>-32.992261669843231</v>
       </c>
       <c r="AY3">
-        <v>-18.383045661086243</v>
+        <v>-18.383045629727462</v>
       </c>
     </row>
   </sheetData>
